--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamikh/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamikh/Documents/stock-checker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>price-paid</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>TWTR</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>AMD</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,6 +421,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>price-paid</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>TWTR</t>
-  </si>
-  <si>
-    <t>PSO</t>
-  </si>
-  <si>
-    <t>AMD</t>
   </si>
 </sst>
 </file>
@@ -365,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,28 +415,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -361,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -387,7 +387,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>25.35</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -398,7 +398,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>25.09</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>18.149999999999999</v>
+        <v>17.14</v>
       </c>
       <c r="C4">
         <v>1</v>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>price-paid</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>TWTR</t>
+  </si>
+  <si>
+    <t>SKLN</t>
+  </si>
+  <si>
+    <t>FIT</t>
+  </si>
+  <si>
+    <t>HOTRW</t>
+  </si>
+  <si>
+    <t>AXARW</t>
   </si>
 </sst>
 </file>
@@ -359,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,6 +427,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.89</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6.09</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7.22E-2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -399,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>21.1</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>25.96</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>17.14</v>
+        <v>18.14</v>
       </c>
       <c r="C4">
         <v>1</v>
